--- a/drug-list/data/02_intermediate/pmda/pmda-with-ingredients.xlsx
+++ b/drug-list/data/02_intermediate/pmda/pmda-with-ingredients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1071"/>
+  <dimension ref="A1:K1070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47992,22 +47992,22 @@
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>2332</v>
+        <v>2357</v>
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
         <is>
-          <t>approval</t>
+          <t>19-Jan-05</t>
         </is>
       </c>
       <c r="D1062" t="inlineStr"/>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>(name of company)</t>
+          <t>Qval 100</t>
         </is>
       </c>
       <c r="F1062" t="inlineStr">
@@ -48017,12 +48017,12 @@
       </c>
       <c r="G1062" t="inlineStr">
         <is>
-          <t>(UNDERLINED: NEW ACTIVE INGREDIENTS)</t>
+          <t>BECLOMETASONE DIPROPIONATE</t>
         </is>
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>Note</t>
+          <t>Addition of a pediatric dosage for bronchial asthma</t>
         </is>
       </c>
       <c r="I1062" t="b">
@@ -48035,22 +48035,22 @@
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>2357</v>
+        <v>2361</v>
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Anti- infective</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
         <is>
-          <t>19-Jan-05</t>
+          <t>23-Apr-04</t>
         </is>
       </c>
       <c r="D1063" t="inlineStr"/>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>Qval 100</t>
+          <t>15\nMeropen for intravenous drip infusion 0.25g</t>
         </is>
       </c>
       <c r="F1063" t="inlineStr">
@@ -48060,12 +48060,12 @@
       </c>
       <c r="G1063" t="inlineStr">
         <is>
-          <t>BECLOMETASONE DIPROPIONATE</t>
+          <t>MEROPENEM TRIHYDRATE</t>
         </is>
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Addition of a pediatric dosage for bronchial asthma</t>
+          <t>A carbapenem antibacterial agent. Addition of indications for purulent meningitis and dosage for pediatric patients.</t>
         </is>
       </c>
       <c r="I1063" t="b">
@@ -48078,7 +48078,7 @@
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>2361</v>
+        <v>2369</v>
       </c>
       <c r="B1064" t="inlineStr">
         <is>
@@ -48087,13 +48087,13 @@
       </c>
       <c r="C1064" t="inlineStr">
         <is>
-          <t>23-Apr-04</t>
+          <t>16-Sep-04</t>
         </is>
       </c>
       <c r="D1064" t="inlineStr"/>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>15\nMeropen for intravenous drip infusion 0.25g</t>
+          <t>Maxipime for injection 0.5g</t>
         </is>
       </c>
       <c r="F1064" t="inlineStr">
@@ -48103,12 +48103,12 @@
       </c>
       <c r="G1064" t="inlineStr">
         <is>
-          <t>MEROPENEM TRIHYDRATE</t>
+          <t>CEFEPIME DIHYDROCHLORIDE</t>
         </is>
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>A carbapenem antibacterial agent. Addition of indications for purulent meningitis and dosage for pediatric patients.</t>
+          <t>Addition of indications on febrile neutropenia</t>
         </is>
       </c>
       <c r="I1064" t="b">
@@ -48121,22 +48121,22 @@
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>2369</v>
+        <v>2381</v>
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Anti- infective</t>
+          <t>Oncology drug</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
         <is>
-          <t>16-Sep-04</t>
+          <t>31-May-04</t>
         </is>
       </c>
       <c r="D1065" t="inlineStr"/>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>Maxipime for injection 0.5g</t>
+          <t>26\nBleo</t>
         </is>
       </c>
       <c r="F1065" t="inlineStr">
@@ -48146,12 +48146,12 @@
       </c>
       <c r="G1065" t="inlineStr">
         <is>
-          <t>CEFEPIME DIHYDROCHLORIDE</t>
+          <t>BLEOMYCIN HYDROCHLORIDE</t>
         </is>
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Addition of indications on febrile neutropenia</t>
+          <t>Addition of indications for germ cell tumors and dosage regimen</t>
         </is>
       </c>
       <c r="I1065" t="b">
@@ -48164,7 +48164,7 @@
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>2381</v>
+        <v>2403</v>
       </c>
       <c r="B1066" t="inlineStr">
         <is>
@@ -48173,13 +48173,13 @@
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>31-May-04</t>
+          <t>19-Jan-05</t>
         </is>
       </c>
       <c r="D1066" t="inlineStr"/>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>26\nBleo</t>
+          <t>Aredia 30mg</t>
         </is>
       </c>
       <c r="F1066" t="inlineStr">
@@ -48189,12 +48189,12 @@
       </c>
       <c r="G1066" t="inlineStr">
         <is>
-          <t>BLEOMYCIN HYDROCHLORIDE</t>
+          <t>PAMIDRONATE DISODIUM</t>
         </is>
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Addition of indications for germ cell tumors and dosage regimen</t>
+          <t>&lt;Combined therapy with anticancer agents&gt;</t>
         </is>
       </c>
       <c r="I1066" t="b">
@@ -48207,7 +48207,7 @@
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>2403</v>
+        <v>2423</v>
       </c>
       <c r="B1067" t="inlineStr">
         <is>
@@ -48216,13 +48216,13 @@
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>19-Jan-05</t>
+          <t>14-Feb-05</t>
         </is>
       </c>
       <c r="D1067" t="inlineStr"/>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>Aredia 30mg</t>
+          <t>Uromitexan 100mg</t>
         </is>
       </c>
       <c r="F1067" t="inlineStr">
@@ -48232,12 +48232,12 @@
       </c>
       <c r="G1067" t="inlineStr">
         <is>
-          <t>PAMIDRONATE DISODIUM</t>
+          <t>MESNA</t>
         </is>
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>&lt;Combined therapy with anticancer agents&gt;</t>
+          <t>In line with the addition to the indications of ifosfamide for malignant bone and soft tissue tumors, an addition to dosage for inhibiting the development of urological impairment associated\nwith administration of said ifosfamide.</t>
         </is>
       </c>
       <c r="I1067" t="b">
@@ -48250,7 +48250,7 @@
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>2423</v>
+        <v>2431</v>
       </c>
       <c r="B1068" t="inlineStr">
         <is>
@@ -48265,7 +48265,7 @@
       <c r="D1068" t="inlineStr"/>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>Uromitexan 100mg</t>
+          <t>5-FU injection 250 Kyowa</t>
         </is>
       </c>
       <c r="F1068" t="inlineStr">
@@ -48275,12 +48275,12 @@
       </c>
       <c r="G1068" t="inlineStr">
         <is>
-          <t>MESNA</t>
+          <t>5-FLUOROURACIL</t>
         </is>
       </c>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>In line with the addition to the indications of ifosfamide for malignant bone and soft tissue tumors, an addition to dosage for inhibiting the development of urological impairment associated\nwith administration of said ifosfamide.</t>
+          <t>&lt;Combined therapy with anticancer agents&gt;</t>
         </is>
       </c>
       <c r="I1068" t="b">
@@ -48293,7 +48293,7 @@
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>2431</v>
+        <v>2439</v>
       </c>
       <c r="B1069" t="inlineStr">
         <is>
@@ -48308,7 +48308,7 @@
       <c r="D1069" t="inlineStr"/>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>5-FU injection 250 Kyowa</t>
+          <t>42\nNatulan</t>
         </is>
       </c>
       <c r="F1069" t="inlineStr">
@@ -48318,12 +48318,12 @@
       </c>
       <c r="G1069" t="inlineStr">
         <is>
-          <t>5-FLUOROURACIL</t>
+          <t>PROCARBAZINE HYDROCHLORIDE</t>
         </is>
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>&lt;Combined therapy with anticancer agents&gt;</t>
+          <t>Addition to indications of combined therapy with other anticancer agents for glioma which possesses components of malignant astrocytoma\nand oligodendroglioma and to dosage regimen.</t>
         </is>
       </c>
       <c r="I1069" t="b">
@@ -48336,22 +48336,22 @@
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>2439</v>
+        <v>2445</v>
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Oncology drug</t>
+          <t>AIDS</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t>14-Feb-05</t>
+          <t>24-Dec-04</t>
         </is>
       </c>
       <c r="D1070" t="inlineStr"/>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>42\nNatulan</t>
+          <t>47\nZiagen Tablets</t>
         </is>
       </c>
       <c r="F1070" t="inlineStr">
@@ -48361,12 +48361,12 @@
       </c>
       <c r="G1070" t="inlineStr">
         <is>
-          <t>PROCARBAZINE HYDROCHLORIDE</t>
+          <t>ABACAVIR SULFATE</t>
         </is>
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Addition to indications of combined therapy with other anticancer agents for glioma which possesses components of malignant astrocytoma\nand oligodendroglioma and to dosage regimen.</t>
+          <t>Addition to dosage regimen of \u201ddaily 600mg, once a day\u201c to the current ones of \u201d300mg per\ndose, twice a day.\u201d</t>
         </is>
       </c>
       <c r="I1070" t="b">
@@ -48376,49 +48376,6 @@
         <v>1</v>
       </c>
       <c r="K1070" t="inlineStr"/>
-    </row>
-    <row r="1071">
-      <c r="A1071" t="n">
-        <v>2445</v>
-      </c>
-      <c r="B1071" t="inlineStr">
-        <is>
-          <t>AIDS</t>
-        </is>
-      </c>
-      <c r="C1071" t="inlineStr">
-        <is>
-          <t>24-Dec-04</t>
-        </is>
-      </c>
-      <c r="D1071" t="inlineStr"/>
-      <c r="E1071" t="inlineStr">
-        <is>
-          <t>47\nZiagen Tablets</t>
-        </is>
-      </c>
-      <c r="F1071" t="inlineStr">
-        <is>
-          <t>Supplemental\nChange</t>
-        </is>
-      </c>
-      <c r="G1071" t="inlineStr">
-        <is>
-          <t>ABACAVIR SULFATE</t>
-        </is>
-      </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>Addition to dosage regimen of \u201ddaily 600mg, once a day\u201c to the current ones of \u201d300mg per\ndose, twice a day.\u201d</t>
-        </is>
-      </c>
-      <c r="I1071" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1071" t="b">
-        <v>1</v>
-      </c>
-      <c r="K1071" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
